--- a/src/assets/stock.xlsx
+++ b/src/assets/stock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
   <si>
     <t>日期</t>
   </si>
@@ -27,41 +27,1150 @@
     <t>外国</t>
   </si>
   <si>
-    <t>除夕</t>
-  </si>
-  <si>
-    <t>春节</t>
-  </si>
-  <si>
-    <t>4-建党节-3</t>
-  </si>
-  <si>
-    <t>建党节-2</t>
-  </si>
-  <si>
-    <t>建党节-1</t>
-  </si>
-  <si>
-    <t>(4)[建党节];
-(1)[修恩爱];</t>
-  </si>
-  <si>
-    <t>建党节+1</t>
-  </si>
-  <si>
-    <t>建党节+2</t>
-  </si>
-  <si>
-    <t>建党节+3</t>
-  </si>
-  <si>
-    <t>(3)美国国庆节</t>
-  </si>
-  <si>
-    <t>建军节</t>
-  </si>
-  <si>
-    <t>国庆节</t>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>(3)[除夕]</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>(3)[春节]</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>(3)[丑闻：佩洛西拒绝交出美国国会大厦安保文件，因为文件可以证明冲击国会佩洛西提前就知情（20210215第3543期）]</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>(3)[全国政协十三届四次会议]</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>(3)[全国人大十三届四次会议]</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>(1)[建党节]</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>(4)[建党节-3]</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>(4)[建党节-2]</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>(4)[建党节-1]</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>(4)[建党节]</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>(4)[建党节+1]</t>
+  </si>
+  <si>
+    <t>2021-07-03</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
+    <t>(3)[美国国庆节]</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>(4)[建党节+2]</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>(4)[建党节+3]</t>
+  </si>
+  <si>
+    <t>2021-07-07</t>
+  </si>
+  <si>
+    <t>(2)[建党节]</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2021-07-11</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>2021-07-18</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021-07-24</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>(4)[建军节]</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+  </si>
+  <si>
+    <t>2021-08-07</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>2021-08-15</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>2021-08-22</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-24</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>2021-08-29</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>(3)[国庆节]</t>
+  </si>
+  <si>
+    <t>2021-10-02</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-10-16</t>
+  </si>
+  <si>
+    <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
+    <t>2021-10-30</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>2021-11-20</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-27</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
   <si>
     <t>时间</t>
@@ -78,9 +1187,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -108,77 +1217,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,14 +1250,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +1308,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +1337,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -267,13 +1376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +1400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,31 +1412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +1442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +1460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,25 +1496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +1520,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,35 +1587,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +1618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +1662,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +1690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,137 +1702,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +1843,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1090,16 +2202,16 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="85.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="114" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1114,1865 +2226,1929 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
-        <v>20210101</v>
-      </c>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2">
-        <v>20210102</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2">
-        <v>20210103</v>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2">
-        <v>20210104</v>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2">
-        <v>20210105</v>
+      <c r="A6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2">
-        <v>20210106</v>
+      <c r="A7" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2">
-        <v>20210107</v>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>20210108</v>
+      <c r="A9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>20210109</v>
+      <c r="A10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>20210110</v>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>20210111</v>
+      <c r="A12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>20210112</v>
+      <c r="A13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>20210113</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>20210114</v>
+      <c r="A15" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>20210115</v>
+      <c r="A16" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>20210116</v>
+      <c r="A17" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>20210117</v>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>20210118</v>
+      <c r="A19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>20210119</v>
+      <c r="A20" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>20210120</v>
+      <c r="A21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>20210121</v>
+      <c r="A22" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>20210122</v>
+      <c r="A23" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>20210123</v>
+      <c r="A24" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20210124</v>
+      <c r="A25" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>20210125</v>
+      <c r="A26" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>20210126</v>
+      <c r="A27" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>20210127</v>
+      <c r="A28" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>20210128</v>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2">
-        <v>20210129</v>
+      <c r="A30" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2">
-        <v>20210130</v>
+      <c r="A31" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2">
-        <v>20210131</v>
+      <c r="A32" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2">
-        <v>20210201</v>
+      <c r="A33" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2">
-        <v>20210202</v>
+      <c r="A34" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2">
-        <v>20210203</v>
+      <c r="A35" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2">
-        <v>20210204</v>
+      <c r="A36" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2">
-        <v>20210205</v>
+      <c r="A37" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2">
-        <v>20210206</v>
+      <c r="A38" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2">
-        <v>20210207</v>
+      <c r="A39" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2">
-        <v>20210208</v>
+      <c r="A40" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2">
-        <v>20210209</v>
+      <c r="A41" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2">
-        <v>20210210</v>
+      <c r="A42" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
-        <v>20210211</v>
+      <c r="A43" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>20210212</v>
+      <c r="A44" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2">
-        <v>20210213</v>
+      <c r="A45" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2">
-        <v>20210214</v>
+      <c r="A46" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2">
-        <v>20210215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2">
-        <v>20210216</v>
+      <c r="A47" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2">
-        <v>20210217</v>
+      <c r="A49" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2">
-        <v>20210218</v>
+      <c r="A50" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2">
-        <v>20210219</v>
+      <c r="A51" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2">
-        <v>20210220</v>
+      <c r="A52" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2">
-        <v>20210221</v>
+      <c r="A53" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2">
-        <v>20210222</v>
+      <c r="A54" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2">
-        <v>20210223</v>
+      <c r="A55" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2">
-        <v>20210224</v>
+      <c r="A56" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2">
-        <v>20210225</v>
+      <c r="A57" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2">
-        <v>20210226</v>
+      <c r="A58" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2">
-        <v>20210227</v>
+      <c r="A59" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2">
-        <v>20210228</v>
+      <c r="A60" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2">
-        <v>20210301</v>
+      <c r="A61" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2">
-        <v>20210302</v>
+      <c r="A62" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2">
-        <v>20210303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2">
-        <v>20210304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2">
-        <v>20210305</v>
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2">
-        <v>20210306</v>
+      <c r="A66" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2">
-        <v>20210307</v>
+      <c r="A67" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2">
-        <v>20210308</v>
+      <c r="A68" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2">
-        <v>20210309</v>
+      <c r="A69" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2">
-        <v>20210310</v>
+      <c r="A70" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2">
-        <v>20210311</v>
+      <c r="A71" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2">
-        <v>20210312</v>
+      <c r="A72" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2">
-        <v>20210313</v>
+      <c r="A73" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2">
-        <v>20210314</v>
+      <c r="A74" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2">
-        <v>20210315</v>
+      <c r="A75" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2">
-        <v>20210316</v>
+      <c r="A76" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2">
-        <v>20210317</v>
+      <c r="A77" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2">
-        <v>20210318</v>
+      <c r="A78" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2">
-        <v>20210319</v>
+      <c r="A79" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2">
-        <v>20210320</v>
+      <c r="A80" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2">
-        <v>20210321</v>
+      <c r="A81" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2">
-        <v>20210322</v>
+      <c r="A82" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2">
-        <v>20210323</v>
+      <c r="A83" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2">
-        <v>20210324</v>
+      <c r="A84" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2">
-        <v>20210325</v>
+      <c r="A85" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2">
-        <v>20210326</v>
+      <c r="A86" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2">
-        <v>20210327</v>
+      <c r="A87" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="2">
-        <v>20210328</v>
+      <c r="A88" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2">
-        <v>20210329</v>
+      <c r="A89" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2">
-        <v>20210330</v>
+      <c r="A90" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2">
-        <v>20210331</v>
+      <c r="A91" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2">
-        <v>20210401</v>
+      <c r="A92" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2">
-        <v>20210402</v>
+      <c r="A93" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2">
-        <v>20210403</v>
+      <c r="A94" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2">
-        <v>20210404</v>
+      <c r="A95" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2">
-        <v>20210405</v>
+      <c r="A96" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2">
-        <v>20210406</v>
+      <c r="A97" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2">
-        <v>20210407</v>
+      <c r="A98" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2">
-        <v>20210408</v>
+      <c r="A99" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2">
-        <v>20210409</v>
+      <c r="A100" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2">
-        <v>20210410</v>
+      <c r="A101" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2">
-        <v>20210411</v>
+      <c r="A102" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="2">
-        <v>20210412</v>
+      <c r="A103" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2">
-        <v>20210413</v>
+      <c r="A104" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="2">
-        <v>20210414</v>
+      <c r="A105" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2">
-        <v>20210415</v>
+      <c r="A106" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2">
-        <v>20210416</v>
+      <c r="A107" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2">
-        <v>20210417</v>
+      <c r="A108" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="2">
-        <v>20210418</v>
+      <c r="A109" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2">
-        <v>20210419</v>
+      <c r="A110" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2">
-        <v>20210420</v>
+      <c r="A111" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="2">
-        <v>20210421</v>
+      <c r="A112" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2">
-        <v>20210422</v>
+      <c r="A113" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="2">
-        <v>20210423</v>
+      <c r="A114" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="2">
-        <v>20210424</v>
+      <c r="A115" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="2">
-        <v>20210425</v>
+      <c r="A116" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2">
-        <v>20210426</v>
+      <c r="A117" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="2">
-        <v>20210427</v>
+      <c r="A118" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2">
-        <v>20210428</v>
+      <c r="A119" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2">
-        <v>20210429</v>
+      <c r="A120" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="2">
-        <v>20210430</v>
+      <c r="A121" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="2">
-        <v>20210501</v>
+      <c r="A122" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2">
-        <v>20210502</v>
+      <c r="A123" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2">
-        <v>20210503</v>
+      <c r="A124" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="2">
-        <v>20210504</v>
+      <c r="A125" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2">
-        <v>20210505</v>
+      <c r="A126" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="2">
-        <v>20210506</v>
+      <c r="A127" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="2">
-        <v>20210507</v>
+      <c r="A128" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="2">
-        <v>20210508</v>
+      <c r="A129" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2">
-        <v>20210509</v>
+      <c r="A130" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2">
-        <v>20210510</v>
+      <c r="A131" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2">
-        <v>20210511</v>
+      <c r="A132" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2">
-        <v>20210512</v>
+      <c r="A133" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="2">
-        <v>20210513</v>
+      <c r="A134" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="2">
-        <v>20210514</v>
+      <c r="A135" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="2">
-        <v>20210515</v>
+      <c r="A136" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="2">
-        <v>20210516</v>
+      <c r="A137" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="2">
-        <v>20210517</v>
+      <c r="A138" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="2">
-        <v>20210518</v>
+      <c r="A139" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="2">
-        <v>20210519</v>
+      <c r="A140" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="2">
-        <v>20210520</v>
+      <c r="A141" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="2">
-        <v>20210521</v>
+      <c r="A142" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="2">
-        <v>20210522</v>
+      <c r="A143" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="2">
-        <v>20210523</v>
+      <c r="A144" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="2">
-        <v>20210524</v>
+      <c r="A145" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="2">
-        <v>20210525</v>
+      <c r="A146" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="2">
-        <v>20210526</v>
+      <c r="A147" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="2">
-        <v>20210527</v>
+      <c r="A148" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="2">
-        <v>20210528</v>
+      <c r="A149" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="2">
-        <v>20210529</v>
+      <c r="A150" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="2">
-        <v>20210530</v>
+      <c r="A151" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="2">
-        <v>20210531</v>
+      <c r="A152" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2">
-        <v>20210601</v>
+      <c r="A153" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="2">
-        <v>20210602</v>
+      <c r="A154" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="2">
-        <v>20210603</v>
+      <c r="A155" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="2">
-        <v>20210604</v>
+      <c r="A156" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="2">
-        <v>20210605</v>
+      <c r="A157" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="2">
-        <v>20210606</v>
+      <c r="A158" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="2">
-        <v>20210607</v>
+      <c r="A159" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="2">
-        <v>20210608</v>
+      <c r="A160" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="2">
-        <v>20210609</v>
+      <c r="A161" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="2">
-        <v>20210610</v>
+      <c r="A162" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="2">
-        <v>20210611</v>
+      <c r="A163" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2">
-        <v>20210612</v>
+      <c r="A164" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="2">
-        <v>20210613</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="2">
-        <v>20210614</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="2">
-        <v>20210615</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2">
-        <v>20210616</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2">
-        <v>20210617</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2">
-        <v>20210618</v>
+      <c r="A165" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="2">
-        <v>20210619</v>
+      <c r="A171" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="2">
-        <v>20210620</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="2">
-        <v>20210621</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="2">
-        <v>20210622</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2">
-        <v>20210623</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="2">
-        <v>20210624</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="2">
-        <v>20210625</v>
+      <c r="A172" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="2">
-        <v>20210626</v>
+      <c r="A178" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="2">
-        <v>20210627</v>
+      <c r="A179" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="2">
-        <v>20210628</v>
+      <c r="A180" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="2">
-        <v>20210629</v>
+      <c r="A181" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="2">
-        <v>20210630</v>
+      <c r="A182" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" ht="27" spans="1:2">
-      <c r="A183" s="2">
-        <v>20210701</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>8</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="2">
-        <v>20210702</v>
+      <c r="A184" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2">
-        <v>20210703</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2">
-        <v>20210704</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>11</v>
+      <c r="A186" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="2">
-        <v>20210705</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="2">
-        <v>20210706</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="2">
-        <v>20210707</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="2">
-        <v>20210708</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="2">
-        <v>20210709</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="2">
-        <v>20210710</v>
+      <c r="A192" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="2">
-        <v>20210711</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="2">
-        <v>20210712</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="2">
-        <v>20210713</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="2">
-        <v>20210714</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="2">
-        <v>20210715</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="2">
-        <v>20210716</v>
+      <c r="A193" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="2">
-        <v>20210717</v>
+      <c r="A199" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="2">
-        <v>20210718</v>
+      <c r="A200" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="2">
-        <v>20210719</v>
+      <c r="A201" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="2">
-        <v>20210720</v>
+      <c r="A202" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="2">
-        <v>20210721</v>
+      <c r="A203" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="2">
-        <v>20210722</v>
+      <c r="A204" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="2">
-        <v>20210723</v>
+      <c r="A205" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="2">
-        <v>20210724</v>
+      <c r="A206" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="2">
-        <v>20210725</v>
+      <c r="A207" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="2">
-        <v>20210726</v>
+      <c r="A208" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="2">
-        <v>20210727</v>
+      <c r="A209" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="2">
-        <v>20210728</v>
+      <c r="A210" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="2">
-        <v>20210729</v>
+      <c r="A211" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="2">
-        <v>20210730</v>
+      <c r="A212" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="2">
-        <v>20210731</v>
+      <c r="A213" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="2">
-        <v>20210801</v>
+      <c r="A214" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="2">
-        <v>20210802</v>
+      <c r="A215" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="2">
-        <v>20210803</v>
+      <c r="A216" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="2">
-        <v>20210804</v>
+      <c r="A217" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="2">
-        <v>20210805</v>
+      <c r="A218" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="2">
-        <v>20210806</v>
+      <c r="A219" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="2">
-        <v>20210807</v>
+      <c r="A220" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="2">
-        <v>20210808</v>
+      <c r="A221" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="2">
-        <v>20210809</v>
+      <c r="A222" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="2">
-        <v>20210810</v>
+      <c r="A223" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="2">
-        <v>20210811</v>
+      <c r="A224" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="2">
-        <v>20210812</v>
+      <c r="A225" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="2">
-        <v>20210813</v>
+      <c r="A226" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="2">
-        <v>20210814</v>
+      <c r="A227" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="2">
-        <v>20210815</v>
+      <c r="A228" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="2">
-        <v>20210816</v>
+      <c r="A229" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="2">
-        <v>20210817</v>
+      <c r="A230" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="2">
-        <v>20210818</v>
+      <c r="A231" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="2">
-        <v>20210819</v>
+      <c r="A232" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="2">
-        <v>20210820</v>
+      <c r="A233" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="2">
-        <v>20210821</v>
+      <c r="A234" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="2">
-        <v>20210822</v>
+      <c r="A235" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="2">
-        <v>20210823</v>
+      <c r="A236" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="2">
-        <v>20210824</v>
+      <c r="A237" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="2">
-        <v>20210825</v>
+      <c r="A238" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="2">
-        <v>20210826</v>
+      <c r="A239" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="2">
-        <v>20210827</v>
+      <c r="A240" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="2">
-        <v>20210828</v>
+      <c r="A241" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="2">
-        <v>20210829</v>
+      <c r="A242" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="2">
-        <v>20210830</v>
+      <c r="A243" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="2">
-        <v>20210831</v>
+      <c r="A244" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="2">
-        <v>20210901</v>
+      <c r="A245" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="2">
-        <v>20210902</v>
+      <c r="A246" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="2">
-        <v>20210903</v>
+      <c r="A247" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="2">
-        <v>20210904</v>
+      <c r="A248" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="2">
-        <v>20210905</v>
+      <c r="A249" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="2">
-        <v>20210906</v>
+      <c r="A250" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="2">
-        <v>20210907</v>
+      <c r="A251" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="2">
-        <v>20210908</v>
+      <c r="A252" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="2">
-        <v>20210909</v>
+      <c r="A253" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="2">
-        <v>20210910</v>
+      <c r="A254" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="2">
-        <v>20210911</v>
+      <c r="A255" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="2">
-        <v>20210912</v>
+      <c r="A256" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="2">
-        <v>20210913</v>
+      <c r="A257" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="2">
-        <v>20210914</v>
+      <c r="A258" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="2">
-        <v>20210915</v>
+      <c r="A259" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="2">
-        <v>20210916</v>
+      <c r="A260" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="2">
-        <v>20210917</v>
+      <c r="A261" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="2">
-        <v>20210918</v>
+      <c r="A262" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="2">
-        <v>20210919</v>
+      <c r="A263" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="2">
-        <v>20210920</v>
+      <c r="A264" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="2">
-        <v>20210921</v>
+      <c r="A265" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="2">
-        <v>20210922</v>
+      <c r="A266" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="2">
-        <v>20210923</v>
+      <c r="A267" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="2">
-        <v>20210924</v>
+      <c r="A268" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="2">
-        <v>20210925</v>
+      <c r="A269" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="2">
-        <v>20210926</v>
+      <c r="A270" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="2">
-        <v>20210927</v>
+      <c r="A271" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="2">
-        <v>20210928</v>
+      <c r="A272" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="2">
-        <v>20210929</v>
+      <c r="A273" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="2">
-        <v>20210930</v>
+      <c r="A274" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="2">
-        <v>20211001</v>
+      <c r="A275" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="2">
-        <v>20211002</v>
+      <c r="A276" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="2">
-        <v>20211003</v>
+      <c r="A277" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="2">
-        <v>20211004</v>
+      <c r="A278" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="2">
-        <v>20211005</v>
+      <c r="A279" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="2">
-        <v>20211006</v>
+      <c r="A280" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="2">
-        <v>20211007</v>
+      <c r="A281" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="2">
-        <v>20211008</v>
+      <c r="A282" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="2">
-        <v>20211009</v>
+      <c r="A283" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="2">
-        <v>20211010</v>
+      <c r="A284" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="2">
-        <v>20211011</v>
+      <c r="A285" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="2">
-        <v>20211012</v>
+      <c r="A286" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="2">
-        <v>20211013</v>
+      <c r="A287" s="4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="2">
-        <v>20211014</v>
+      <c r="A288" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="2">
-        <v>20211015</v>
+      <c r="A289" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="2">
-        <v>20211016</v>
+      <c r="A290" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="2">
-        <v>20211017</v>
+      <c r="A291" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="2">
-        <v>20211018</v>
+      <c r="A292" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="2">
-        <v>20211019</v>
+      <c r="A293" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="2">
-        <v>20211020</v>
+      <c r="A294" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="2">
-        <v>20211021</v>
+      <c r="A295" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="2">
-        <v>20211022</v>
+      <c r="A296" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="2">
-        <v>20211023</v>
+      <c r="A297" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="2">
-        <v>20211024</v>
+      <c r="A298" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="2">
-        <v>20211025</v>
+      <c r="A299" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="2">
-        <v>20211026</v>
+      <c r="A300" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="2">
-        <v>20211027</v>
+      <c r="A301" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="2">
-        <v>20211028</v>
+      <c r="A302" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="2">
-        <v>20211029</v>
+      <c r="A303" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="2">
-        <v>20211030</v>
+      <c r="A304" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="2">
-        <v>20211031</v>
+      <c r="A305" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="2">
-        <v>20211101</v>
+      <c r="A306" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="2">
-        <v>20211102</v>
+      <c r="A307" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="2">
-        <v>20211103</v>
+      <c r="A308" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="2">
-        <v>20211104</v>
+      <c r="A309" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="2">
-        <v>20211105</v>
+      <c r="A310" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="2">
-        <v>20211106</v>
+      <c r="A311" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="2">
-        <v>20211107</v>
+      <c r="A312" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="2">
-        <v>20211108</v>
+      <c r="A313" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="2">
-        <v>20211109</v>
+      <c r="A314" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="2">
-        <v>20211110</v>
+      <c r="A315" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="2">
-        <v>20211111</v>
+      <c r="A316" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="2">
-        <v>20211112</v>
+      <c r="A317" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="2">
-        <v>20211113</v>
+      <c r="A318" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="2">
-        <v>20211114</v>
+      <c r="A319" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="2">
-        <v>20211115</v>
+      <c r="A320" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="2">
-        <v>20211116</v>
+      <c r="A321" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="2">
-        <v>20211117</v>
+      <c r="A322" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="2">
-        <v>20211118</v>
+      <c r="A323" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="2">
-        <v>20211119</v>
+      <c r="A324" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="2">
-        <v>20211120</v>
+      <c r="A325" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="2">
-        <v>20211121</v>
+      <c r="A326" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="2">
-        <v>20211122</v>
+      <c r="A327" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="2">
-        <v>20211123</v>
+      <c r="A328" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="2">
-        <v>20211124</v>
+      <c r="A329" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="2">
-        <v>20211125</v>
+      <c r="A330" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="2">
-        <v>20211126</v>
+      <c r="A331" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="2">
-        <v>20211127</v>
+      <c r="A332" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="2">
-        <v>20211128</v>
+      <c r="A333" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="2">
-        <v>20211129</v>
+      <c r="A334" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="2">
-        <v>20211130</v>
+      <c r="A335" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="2">
-        <v>20211201</v>
+      <c r="A336" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="2">
-        <v>20211202</v>
+      <c r="A337" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="2">
-        <v>20211203</v>
+      <c r="A338" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="2">
-        <v>20211204</v>
+      <c r="A339" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="2">
-        <v>20211205</v>
+      <c r="A340" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="2">
-        <v>20211206</v>
+      <c r="A341" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="2">
-        <v>20211207</v>
+      <c r="A342" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="2">
-        <v>20211208</v>
+      <c r="A343" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="2">
-        <v>20211209</v>
+      <c r="A344" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="2">
-        <v>20211210</v>
+      <c r="A345" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="2">
-        <v>20211211</v>
+      <c r="A346" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="2">
-        <v>20211212</v>
+      <c r="A347" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="2">
-        <v>20211213</v>
+      <c r="A348" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="2">
-        <v>20211214</v>
+      <c r="A349" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="2">
-        <v>20211215</v>
+      <c r="A350" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="2">
-        <v>20211216</v>
+      <c r="A351" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="2">
-        <v>20211217</v>
+      <c r="A352" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="2">
-        <v>20211218</v>
+      <c r="A353" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="2">
-        <v>20211219</v>
+      <c r="A354" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="2">
-        <v>20211220</v>
+      <c r="A355" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="2">
-        <v>20211221</v>
+      <c r="A356" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="2">
-        <v>20211222</v>
+      <c r="A357" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="2">
-        <v>20211223</v>
+      <c r="A358" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="2">
-        <v>20211224</v>
+      <c r="A359" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="2">
-        <v>20211225</v>
+      <c r="A360" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="2">
-        <v>20211226</v>
+      <c r="A361" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="2">
-        <v>20211227</v>
+      <c r="A362" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="2">
-        <v>20211228</v>
+      <c r="A363" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="2">
-        <v>20211229</v>
+      <c r="A364" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="2">
-        <v>20211230</v>
+      <c r="A365" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="2">
-        <v>20211231</v>
+      <c r="A366" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3016,13 +4192,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>386</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">

--- a/src/assets/stock.xlsx
+++ b/src/assets/stock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="390">
   <si>
     <t>日期</t>
   </si>
@@ -312,6 +312,9 @@
     <t>2021-03-31</t>
   </si>
   <si>
+    <t>(4)[ST抚钢的年报]</t>
+  </si>
+  <si>
     <t>2021-04-01</t>
   </si>
   <si>
@@ -376,6 +379,9 @@
   </si>
   <si>
     <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>(4)[ST湘电的年报]</t>
   </si>
   <si>
     <t>2021-04-23</t>
@@ -1188,8 +1194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1217,11 +1223,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1250,7 +1270,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,50 +1330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,22 +1354,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,7 +1382,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,163 +1556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,6 +1593,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1605,15 +1640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,26 +1688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1690,10 +1696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,133 +1708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2202,9 +2208,9 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2687,1468 +2693,1474 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="B91" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4192,13 +4204,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">

--- a/src/assets/stock.xlsx
+++ b/src/assets/stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1509">
   <si>
     <t>日期</t>
   </si>
@@ -312,6 +312,10 @@
     <t>2021-03-11</t>
   </si>
   <si>
+    <t>(4)[两会利好];
+(2)[3月11日，2021年亚太经合组织（APEC）首次高官会将在线举行]</t>
+  </si>
+  <si>
     <t>2021-03-12</t>
   </si>
   <si>
@@ -396,6 +400,9 @@
     <t>2021-04-07</t>
   </si>
   <si>
+    <t>(2)[2021年4月7-9日,成都春季糖酒会,成都的西部国际博览中心]</t>
+  </si>
+  <si>
     <t>2021-04-08</t>
   </si>
   <si>
@@ -591,10 +598,16 @@
     <t>2021-06-09</t>
   </si>
   <si>
+    <t>(2)[2021年6月9日-6月11日，世界半导体大会，在南京国际博览中心举行]</t>
+  </si>
+  <si>
     <t>2021-06-10</t>
   </si>
   <si>
     <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>(1)[英国将主办七国集团(G7)峰会，英格兰西南部康瓦尔郡(Cornwall)海岸城镇举行。另据英国广播公司报道，除G7成员国之外，英国还邀请澳大利亚、印度、韩国和欧盟领导人参加该峰会。]</t>
   </si>
   <si>
     <t>2021-06-12</t>
@@ -709,12 +722,19 @@
     <t>2021-07-08</t>
   </si>
   <si>
+    <t>(2)[建党节];
+(3)[2021世界人工智能大会展览将回归线下，于7月8日至7月10日在上海世博中心和世博展览馆与大家见面]</t>
+  </si>
+  <si>
     <t>2021-07-09</t>
   </si>
   <si>
     <t>2021-07-10</t>
   </si>
   <si>
+    <t>(3)[2021世界人工智能大会展览将回归线下，于7月8日至7月10日在上海世博中心和世博展览馆与大家见面]</t>
+  </si>
+  <si>
     <t>2021-07-11</t>
   </si>
   <si>
@@ -1055,6 +1075,9 @@
   </si>
   <si>
     <t>2021-10-30</t>
+  </si>
+  <si>
+    <t>(2)[G20峰会将于2021年10月30-31日在罗马举行]</t>
   </si>
   <si>
     <t>2021-10-31</t>
@@ -4543,9 +4566,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4572,9 +4595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4588,9 +4610,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4601,39 +4639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4657,17 +4665,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4680,7 +4696,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4702,15 +4726,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4731,7 +4754,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4743,25 +4886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4773,73 +4898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4857,31 +4916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4893,25 +4934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4940,15 +4963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4964,13 +4978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4999,30 +5017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5037,6 +5031,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5045,10 +5068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5057,130 +5080,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5557,16 +5580,16 @@
   <dimension ref="A1:C370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B81:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="106.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="114" style="2" customWidth="1"/>
+    <col min="2" max="2" width="109.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="179" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -6065,17 +6088,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" ht="27" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>90</v>
+      <c r="B75" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>90</v>
@@ -6083,1565 +6106,1601 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>193</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" ht="27" spans="1:2">
       <c r="A187" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" ht="27" spans="1:2">
       <c r="A194" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" ht="27" spans="1:2">
       <c r="A195" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>231</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>347</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="4" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="4" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="4" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="4" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="4" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="4" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="4" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="4" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="4" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="4" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="4" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="4" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="4" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="4" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="4" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="4" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -7681,52 +7740,52 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -7734,7 +7793,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -7742,7 +7801,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -7750,7 +7809,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -7758,7 +7817,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -7766,17 +7825,17 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -7784,7 +7843,7 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -7792,7 +7851,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
@@ -7800,7 +7859,7 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -7808,7 +7867,7 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
@@ -7816,17 +7875,17 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -7834,7 +7893,7 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -7842,7 +7901,7 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>48</v>
@@ -7850,7 +7909,7 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -7858,7 +7917,7 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
@@ -7866,17 +7925,17 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>52</v>
@@ -7884,7 +7943,7 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>54</v>
@@ -7892,1667 +7951,1667 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:1">
       <c r="A65" s="4" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:1">
       <c r="A69" s="4" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:1">
       <c r="A212" s="4" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" spans="1:1">
       <c r="A213" s="4" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:1">
       <c r="A214" s="4" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:1">
       <c r="A215" s="4" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:1">
       <c r="A216" s="4" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:1">
       <c r="A218" s="4" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:1">
       <c r="A219" s="4" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:1">
       <c r="A220" s="4" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:1">
       <c r="A221" s="4" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:1">
       <c r="A223" s="4" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:1">
       <c r="A224" s="4" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:1">
       <c r="A226" s="4" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:1">
       <c r="A230" s="4" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:1">
       <c r="A231" s="4" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:1">
       <c r="A232" s="4" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:1">
       <c r="A233" s="4" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:1">
       <c r="A234" s="4" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" spans="1:1">
       <c r="A235" s="4" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:1">
       <c r="A236" s="4" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" spans="1:1">
       <c r="A237" s="4" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:1">
       <c r="A239" s="4" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:1">
       <c r="A240" s="4" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:1">
       <c r="A242" s="4" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:1">
       <c r="A246" s="4" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:1">
       <c r="A247" s="4" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:1">
       <c r="A249" s="4" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:1">
       <c r="A250" s="4" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" spans="1:1">
       <c r="A251" s="4" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:1">
       <c r="A252" s="4" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:1">
       <c r="A253" s="4" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:1">
       <c r="A254" s="4" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:1">
       <c r="A255" s="4" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:1">
       <c r="A257" s="4" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:1">
       <c r="A258" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:1">
       <c r="A262" s="4" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:1">
       <c r="A264" s="4" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:1">
       <c r="A265" s="4" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:1">
       <c r="A267" s="4" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:1">
       <c r="A268" s="4" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:1">
       <c r="A270" s="4" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:1">
       <c r="A271" s="4" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:1">
       <c r="A273" s="4" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:1">
       <c r="A274" s="4" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:1">
       <c r="A275" s="4" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" spans="1:1">
       <c r="A277" s="4" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:1">
       <c r="A279" s="4" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:1">
       <c r="A283" s="4" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" spans="1:1">
       <c r="A284" s="4" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" spans="1:1">
       <c r="A287" s="4" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" spans="1:1">
       <c r="A288" s="4" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:1">
       <c r="A292" s="4" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:1">
       <c r="A294" s="4" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:1">
       <c r="A296" s="4" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:1">
       <c r="A297" s="4" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:1">
       <c r="A298" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:1">
       <c r="A299" s="4" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:1">
       <c r="A300" s="4" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:1">
       <c r="A301" s="4" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:1">
       <c r="A302" s="4" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:1">
       <c r="A303" s="4" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:1">
       <c r="A304" s="4" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:1">
       <c r="A305" s="4" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:1">
       <c r="A306" s="4" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:1">
       <c r="A307" s="4" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:1">
       <c r="A308" s="4" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:1">
       <c r="A309" s="4" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:1">
       <c r="A310" s="4" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:1">
       <c r="A311" s="4" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:1">
       <c r="A312" s="4" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:1">
       <c r="A313" s="4" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:1">
       <c r="A314" s="4" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:1">
       <c r="A315" s="4" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:1">
       <c r="A316" s="4" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:1">
       <c r="A317" s="4" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:1">
       <c r="A318" s="4" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:1">
       <c r="A319" s="4" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:1">
       <c r="A320" s="4" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:1">
       <c r="A321" s="4" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:1">
       <c r="A322" s="4" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:1">
       <c r="A323" s="4" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:1">
       <c r="A324" s="4" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="325" s="2" customFormat="1" spans="1:1">
       <c r="A325" s="4" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="326" s="2" customFormat="1" spans="1:1">
       <c r="A326" s="4" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:1">
       <c r="A327" s="4" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:1">
       <c r="A328" s="4" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:1">
       <c r="A329" s="4" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:1">
       <c r="A330" s="4" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:1">
       <c r="A331" s="4" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:1">
       <c r="A332" s="4" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:1">
       <c r="A333" s="4" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:1">
       <c r="A334" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:1">
       <c r="A335" s="4" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:1">
       <c r="A336" s="4" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:1">
       <c r="A337" s="4" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:1">
       <c r="A338" s="4" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="339" s="2" customFormat="1" spans="1:1">
       <c r="A339" s="4" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="340" s="2" customFormat="1" spans="1:1">
       <c r="A340" s="4" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="341" s="2" customFormat="1" spans="1:1">
       <c r="A341" s="4" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
     <row r="342" s="2" customFormat="1" spans="1:1">
       <c r="A342" s="4" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="343" s="2" customFormat="1" spans="1:1">
       <c r="A343" s="4" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="344" s="2" customFormat="1" spans="1:1">
       <c r="A344" s="4" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:1">
       <c r="A345" s="4" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="346" s="2" customFormat="1" spans="1:1">
       <c r="A346" s="4" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="347" s="2" customFormat="1" spans="1:1">
       <c r="A347" s="4" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="348" s="2" customFormat="1" spans="1:1">
       <c r="A348" s="4" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="349" s="2" customFormat="1" spans="1:1">
       <c r="A349" s="4" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="350" s="2" customFormat="1" spans="1:1">
       <c r="A350" s="4" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="351" s="2" customFormat="1" spans="1:1">
       <c r="A351" s="4" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:1">
       <c r="A352" s="4" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="353" s="2" customFormat="1" spans="1:1">
       <c r="A353" s="4" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="354" s="2" customFormat="1" spans="1:1">
       <c r="A354" s="4" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="355" s="2" customFormat="1" spans="1:1">
       <c r="A355" s="4" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="356" s="2" customFormat="1" spans="1:1">
       <c r="A356" s="4" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="357" s="2" customFormat="1" spans="1:1">
       <c r="A357" s="4" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="358" s="2" customFormat="1" spans="1:1">
       <c r="A358" s="4" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="359" s="2" customFormat="1" spans="1:1">
       <c r="A359" s="4" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="360" s="2" customFormat="1" spans="1:1">
       <c r="A360" s="4" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="361" s="2" customFormat="1" spans="1:1">
       <c r="A361" s="4" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="362" s="2" customFormat="1" spans="1:1">
       <c r="A362" s="4" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="363" s="2" customFormat="1" spans="1:1">
       <c r="A363" s="4" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="364" s="2" customFormat="1" spans="1:1">
       <c r="A364" s="4" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="365" s="2" customFormat="1" spans="1:1">
       <c r="A365" s="4" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:1">
       <c r="A366" s="4" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -9592,1827 +9651,1827 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:1">
       <c r="A65" s="4" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:1">
       <c r="A69" s="4" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:1">
       <c r="A212" s="4" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" spans="1:1">
       <c r="A213" s="4" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:1">
       <c r="A214" s="4" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:1">
       <c r="A215" s="4" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:1">
       <c r="A216" s="4" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:1">
       <c r="A218" s="4" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:1">
       <c r="A219" s="4" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:1">
       <c r="A220" s="4" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:1">
       <c r="A221" s="4" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:1">
       <c r="A223" s="4" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:1">
       <c r="A224" s="4" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:1">
       <c r="A226" s="4" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:1">
       <c r="A230" s="4" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:1">
       <c r="A231" s="4" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:1">
       <c r="A232" s="4" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:1">
       <c r="A233" s="4" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:1">
       <c r="A234" s="4" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" spans="1:1">
       <c r="A235" s="4" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:1">
       <c r="A236" s="4" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" spans="1:1">
       <c r="A237" s="4" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:1">
       <c r="A239" s="4" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:1">
       <c r="A240" s="4" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:1">
       <c r="A242" s="4" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:1">
       <c r="A246" s="4" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:1">
       <c r="A247" s="4" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:1">
       <c r="A249" s="4" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:1">
       <c r="A250" s="4" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" spans="1:1">
       <c r="A251" s="4" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:1">
       <c r="A252" s="4" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:1">
       <c r="A253" s="4" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:1">
       <c r="A254" s="4" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:1">
       <c r="A255" s="4" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:1">
       <c r="A257" s="4" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:1">
       <c r="A258" s="4" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:1">
       <c r="A262" s="4" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:1">
       <c r="A264" s="4" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:1">
       <c r="A265" s="4" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:1">
       <c r="A267" s="4" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:1">
       <c r="A268" s="4" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:1">
       <c r="A270" s="4" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:1">
       <c r="A271" s="4" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:1">
       <c r="A273" s="4" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:1">
       <c r="A274" s="4" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:1">
       <c r="A275" s="4" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" spans="1:1">
       <c r="A277" s="4" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:1">
       <c r="A279" s="4" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:1">
       <c r="A283" s="4" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" spans="1:1">
       <c r="A284" s="4" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" spans="1:1">
       <c r="A287" s="4" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" spans="1:1">
       <c r="A288" s="4" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:1">
       <c r="A292" s="4" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:1">
       <c r="A294" s="4" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:1">
       <c r="A296" s="4" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:1">
       <c r="A297" s="4" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:1">
       <c r="A298" s="4" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:1">
       <c r="A299" s="4" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:1">
       <c r="A300" s="4" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:1">
       <c r="A301" s="4" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:1">
       <c r="A302" s="4" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:1">
       <c r="A303" s="4" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:1">
       <c r="A304" s="4" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:1">
       <c r="A305" s="4" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:1">
       <c r="A306" s="4" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:1">
       <c r="A307" s="4" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:1">
       <c r="A308" s="4" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:1">
       <c r="A309" s="4" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:1">
       <c r="A310" s="4" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:1">
       <c r="A311" s="4" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:1">
       <c r="A312" s="4" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:1">
       <c r="A313" s="4" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:1">
       <c r="A314" s="4" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:1">
       <c r="A315" s="4" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:1">
       <c r="A316" s="4" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:1">
       <c r="A317" s="4" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:1">
       <c r="A318" s="4" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:1">
       <c r="A319" s="4" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:1">
       <c r="A320" s="4" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:1">
       <c r="A321" s="4" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:1">
       <c r="A322" s="4" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:1">
       <c r="A323" s="4" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:1">
       <c r="A324" s="4" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="325" s="2" customFormat="1" spans="1:1">
       <c r="A325" s="4" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="326" s="2" customFormat="1" spans="1:1">
       <c r="A326" s="4" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:1">
       <c r="A327" s="4" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:1">
       <c r="A328" s="4" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:1">
       <c r="A329" s="4" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:1">
       <c r="A330" s="4" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:1">
       <c r="A331" s="4" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:1">
       <c r="A332" s="4" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:1">
       <c r="A333" s="4" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:1">
       <c r="A334" s="4" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:1">
       <c r="A335" s="4" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:1">
       <c r="A336" s="4" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:1">
       <c r="A337" s="4" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:1">
       <c r="A338" s="4" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="339" s="2" customFormat="1" spans="1:1">
       <c r="A339" s="4" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="340" s="2" customFormat="1" spans="1:1">
       <c r="A340" s="4" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="341" s="2" customFormat="1" spans="1:1">
       <c r="A341" s="4" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="342" s="2" customFormat="1" spans="1:1">
       <c r="A342" s="4" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="343" s="2" customFormat="1" spans="1:1">
       <c r="A343" s="4" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="344" s="2" customFormat="1" spans="1:1">
       <c r="A344" s="4" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:1">
       <c r="A345" s="4" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="346" s="2" customFormat="1" spans="1:1">
       <c r="A346" s="4" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="347" s="2" customFormat="1" spans="1:1">
       <c r="A347" s="4" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="348" s="2" customFormat="1" spans="1:1">
       <c r="A348" s="4" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="349" s="2" customFormat="1" spans="1:1">
       <c r="A349" s="4" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="350" s="2" customFormat="1" spans="1:1">
       <c r="A350" s="4" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="351" s="2" customFormat="1" spans="1:1">
       <c r="A351" s="4" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:1">
       <c r="A352" s="4" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="353" s="2" customFormat="1" spans="1:1">
       <c r="A353" s="4" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="354" s="2" customFormat="1" spans="1:1">
       <c r="A354" s="4" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="355" s="2" customFormat="1" spans="1:1">
       <c r="A355" s="4" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="356" s="2" customFormat="1" spans="1:1">
       <c r="A356" s="4" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="357" s="2" customFormat="1" spans="1:1">
       <c r="A357" s="4" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="358" s="2" customFormat="1" spans="1:1">
       <c r="A358" s="4" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="359" s="2" customFormat="1" spans="1:1">
       <c r="A359" s="4" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="360" s="2" customFormat="1" spans="1:1">
       <c r="A360" s="4" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="361" s="2" customFormat="1" spans="1:1">
       <c r="A361" s="4" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="362" s="2" customFormat="1" spans="1:1">
       <c r="A362" s="4" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="363" s="2" customFormat="1" spans="1:1">
       <c r="A363" s="4" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="364" s="2" customFormat="1" spans="1:1">
       <c r="A364" s="4" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="365" s="2" customFormat="1" spans="1:1">
       <c r="A365" s="4" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:1">
       <c r="A366" s="4" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -11451,1827 +11510,1827 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>1153</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:1">
       <c r="A65" s="4" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:1">
       <c r="A69" s="4" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>1211</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>1219</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>1221</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>1222</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>1224</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>1225</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>1226</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="4" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>1244</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>1245</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:1">
       <c r="A115" s="4" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:1">
       <c r="A122" s="4" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:1">
       <c r="A126" s="4" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>1261</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:1">
       <c r="A130" s="4" t="s">
-        <v>1262</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:1">
       <c r="A132" s="4" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:1">
       <c r="A133" s="4" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:1">
       <c r="A136" s="4" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:1">
       <c r="A144" s="4" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="4" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:1">
       <c r="A153" s="4" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>1293</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>1297</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:1">
       <c r="A166" s="4" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>1299</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>1300</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>1301</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>1302</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>1304</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>1306</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>1307</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>1308</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>1310</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>1311</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>1312</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>1313</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:1">
       <c r="A185" s="4" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>1319</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>1320</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>1322</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:1">
       <c r="A192" s="4" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>1329</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>1330</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>1331</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:1">
       <c r="A200" s="4" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:1">
       <c r="A201" s="4" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>1334</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>1335</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>1337</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:1">
       <c r="A212" s="4" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" spans="1:1">
       <c r="A213" s="4" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:1">
       <c r="A214" s="4" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:1">
       <c r="A215" s="4" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:1">
       <c r="A216" s="4" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" spans="1:1">
       <c r="A217" s="4" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:1">
       <c r="A218" s="4" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:1">
       <c r="A219" s="4" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:1">
       <c r="A220" s="4" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:1">
       <c r="A221" s="4" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:1">
       <c r="A223" s="4" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:1">
       <c r="A224" s="4" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:1">
       <c r="A226" s="4" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:1">
       <c r="A230" s="4" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:1">
       <c r="A231" s="4" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:1">
       <c r="A232" s="4" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:1">
       <c r="A233" s="4" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:1">
       <c r="A234" s="4" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" spans="1:1">
       <c r="A235" s="4" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:1">
       <c r="A236" s="4" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" spans="1:1">
       <c r="A237" s="4" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:1">
       <c r="A239" s="4" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:1">
       <c r="A240" s="4" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:1">
       <c r="A242" s="4" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:1">
       <c r="A246" s="4" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:1">
       <c r="A247" s="4" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:1">
       <c r="A249" s="4" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:1">
       <c r="A250" s="4" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" spans="1:1">
       <c r="A251" s="4" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:1">
       <c r="A252" s="4" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:1">
       <c r="A253" s="4" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:1">
       <c r="A254" s="4" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:1">
       <c r="A255" s="4" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:1">
       <c r="A257" s="4" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:1">
       <c r="A258" s="4" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:1">
       <c r="A262" s="4" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:1">
       <c r="A264" s="4" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:1">
       <c r="A265" s="4" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:1">
       <c r="A267" s="4" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:1">
       <c r="A268" s="4" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:1">
       <c r="A270" s="4" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:1">
       <c r="A271" s="4" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:1">
       <c r="A273" s="4" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:1">
       <c r="A274" s="4" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:1">
       <c r="A275" s="4" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" spans="1:1">
       <c r="A277" s="4" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:1">
       <c r="A279" s="4" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:1">
       <c r="A283" s="4" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" spans="1:1">
       <c r="A284" s="4" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" spans="1:1">
       <c r="A287" s="4" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" spans="1:1">
       <c r="A288" s="4" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:1">
       <c r="A292" s="4" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:1">
       <c r="A294" s="4" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:1">
       <c r="A296" s="4" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:1">
       <c r="A297" s="4" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:1">
       <c r="A298" s="4" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:1">
       <c r="A299" s="4" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:1">
       <c r="A300" s="4" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:1">
       <c r="A301" s="4" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:1">
       <c r="A302" s="4" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:1">
       <c r="A303" s="4" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:1">
       <c r="A304" s="4" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:1">
       <c r="A305" s="4" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:1">
       <c r="A306" s="4" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:1">
       <c r="A307" s="4" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:1">
       <c r="A308" s="4" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:1">
       <c r="A309" s="4" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:1">
       <c r="A310" s="4" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:1">
       <c r="A311" s="4" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:1">
       <c r="A312" s="4" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:1">
       <c r="A313" s="4" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:1">
       <c r="A314" s="4" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:1">
       <c r="A315" s="4" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:1">
       <c r="A316" s="4" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:1">
       <c r="A317" s="4" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:1">
       <c r="A318" s="4" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:1">
       <c r="A319" s="4" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:1">
       <c r="A320" s="4" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:1">
       <c r="A321" s="4" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:1">
       <c r="A322" s="4" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:1">
       <c r="A323" s="4" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:1">
       <c r="A324" s="4" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="325" s="2" customFormat="1" spans="1:1">
       <c r="A325" s="4" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="326" s="2" customFormat="1" spans="1:1">
       <c r="A326" s="4" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:1">
       <c r="A327" s="4" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:1">
       <c r="A328" s="4" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:1">
       <c r="A329" s="4" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:1">
       <c r="A330" s="4" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:1">
       <c r="A331" s="4" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:1">
       <c r="A332" s="4" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:1">
       <c r="A333" s="4" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:1">
       <c r="A334" s="4" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:1">
       <c r="A335" s="4" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:1">
       <c r="A336" s="4" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:1">
       <c r="A337" s="4" t="s">
-        <v>1469</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:1">
       <c r="A338" s="4" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="339" s="2" customFormat="1" spans="1:1">
       <c r="A339" s="4" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="340" s="2" customFormat="1" spans="1:1">
       <c r="A340" s="4" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="341" s="2" customFormat="1" spans="1:1">
       <c r="A341" s="4" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="342" s="2" customFormat="1" spans="1:1">
       <c r="A342" s="4" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="343" s="2" customFormat="1" spans="1:1">
       <c r="A343" s="4" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="344" s="2" customFormat="1" spans="1:1">
       <c r="A344" s="4" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:1">
       <c r="A345" s="4" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="346" s="2" customFormat="1" spans="1:1">
       <c r="A346" s="4" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="347" s="2" customFormat="1" spans="1:1">
       <c r="A347" s="4" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="348" s="2" customFormat="1" spans="1:1">
       <c r="A348" s="4" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="349" s="2" customFormat="1" spans="1:1">
       <c r="A349" s="4" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="350" s="2" customFormat="1" spans="1:1">
       <c r="A350" s="4" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="351" s="2" customFormat="1" spans="1:1">
       <c r="A351" s="4" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:1">
       <c r="A352" s="4" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="353" s="2" customFormat="1" spans="1:1">
       <c r="A353" s="4" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="354" s="2" customFormat="1" spans="1:1">
       <c r="A354" s="4" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="355" s="2" customFormat="1" spans="1:1">
       <c r="A355" s="4" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="356" s="2" customFormat="1" spans="1:1">
       <c r="A356" s="4" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="357" s="2" customFormat="1" spans="1:1">
       <c r="A357" s="4" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="358" s="2" customFormat="1" spans="1:1">
       <c r="A358" s="4" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="359" s="2" customFormat="1" spans="1:1">
       <c r="A359" s="4" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="360" s="2" customFormat="1" spans="1:1">
       <c r="A360" s="4" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="361" s="2" customFormat="1" spans="1:1">
       <c r="A361" s="4" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="362" s="2" customFormat="1" spans="1:1">
       <c r="A362" s="4" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="363" s="2" customFormat="1" spans="1:1">
       <c r="A363" s="4" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="364" s="2" customFormat="1" spans="1:1">
       <c r="A364" s="4" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="365" s="2" customFormat="1" spans="1:1">
       <c r="A365" s="4" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:1">
       <c r="A366" s="4" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -13297,13 +13356,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">
